--- a/G021_AMazingSour/部品表/Shoe納くん_部品表.xlsx
+++ b/G021_AMazingSour/部品表/Shoe納くん_部品表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.239.15.163\robocon\2018\ガレッジニア(AMazing_Sour)\13.提出書類\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="部品表" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">部品表!$A$1:$J$76</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -373,23 +368,6 @@
     <t>adafruit</t>
   </si>
   <si>
-    <t>搬送機用カラーセンサ
-※チップワンに購入</t>
-    <rPh sb="0" eb="2">
-      <t>ハンソウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指紋認証機にて使用</t>
     <rPh sb="0" eb="2">
       <t>シモン</t>
@@ -440,20 +418,6 @@
   </si>
   <si>
     <t>Letex Technology Corp.</t>
-  </si>
-  <si>
-    <t>搬送機用光センサにて使用
-※秋月電子通商にて税込価格で購入（通販コード：P-04500）</t>
-    <rPh sb="0" eb="4">
-      <t>ハンソウキヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒカリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>両面スルーホールユニバーサル基板　２＊８</t>
@@ -1020,162 +984,6 @@
       <t>コウニュウ</t>
     </rPh>
     <rPh sb="29" eb="31">
-      <t>ツウハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>搬送機用光センサにて使用
-※秋月電子通商にて税込価格で購入（通販コード：P-12979）</t>
-    <rPh sb="14" eb="16">
-      <t>アキヅキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ツウハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>搬送機用光センサにて使用
-※秋月電子通商にて税込価格で1パック購入（通販コード：R-25331）</t>
-    <rPh sb="14" eb="16">
-      <t>アキヅキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ツウハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>搬送機用光センサにて使用
-※秋月電子通商にて税込価格で1パック購入（通販コード：R-25103）</t>
-    <rPh sb="14" eb="16">
-      <t>アキヅキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ツウハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>搬送機用光センサにて使用
-※秋月電子通商にて税込価格で購入（通販コード：P-06065）</t>
-    <rPh sb="14" eb="16">
-      <t>アキヅキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ツウハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>搬送機用光センサにて使用
-※秋月電子通商にて税込価格で1パック購入（通販コード：P-06756）</t>
-    <rPh sb="14" eb="16">
-      <t>アキヅキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ツウハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>搬送機用光センサにて使用
-※秋月電子通商にて税込価格で購入（通販コード：C-01627）</t>
-    <rPh sb="14" eb="16">
-      <t>アキヅキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
       <t>ツウハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1511,11 +1319,189 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>運搬車用カラーセンサ
+※チップワンに購入</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運搬車用光センサにて使用
+※秋月電子通商にて税込価格で購入（通販コード：P-04500）</t>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運搬車用光センサにて使用
+※秋月電子通商にて税込価格で購入（通販コード：P-12979）</t>
+    <rPh sb="14" eb="16">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運搬車用光センサにて使用
+※秋月電子通商にて税込価格で1パック購入（通販コード：R-25331）</t>
+    <rPh sb="14" eb="16">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運搬車用光センサにて使用
+※秋月電子通商にて税込価格で1パック購入（通販コード：R-25103）</t>
+    <rPh sb="14" eb="16">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運搬車用光センサにて使用
+※秋月電子通商にて税込価格で購入（通販コード：P-06065）</t>
+    <rPh sb="14" eb="16">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運搬車用光センサにて使用
+※秋月電子通商にて税込価格で1パック購入（通販コード：P-06756）</t>
+    <rPh sb="14" eb="16">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運搬車用光センサにて使用
+※秋月電子通商にて税込価格で購入（通販コード：C-01627）</t>
+    <rPh sb="14" eb="16">
+      <t>アキヅキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1783,7 +1769,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2829,26 +2815,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:J76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="51.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="16" t="s">
         <v>24</v>
       </c>
@@ -2856,7 +2842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +2854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2900,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -2933,7 +2919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -2966,7 +2952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -2977,13 +2963,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G8" s="25">
         <v>250</v>
@@ -2996,10 +2982,10 @@
         <v>500</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -3010,13 +2996,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="25">
         <v>597</v>
@@ -3029,10 +3015,10 @@
         <v>4776</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -3043,13 +3029,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="25">
         <v>250</v>
@@ -3062,10 +3048,10 @@
         <v>1000</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>4</v>
       </c>
@@ -3076,13 +3062,13 @@
         <v>26</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="25">
         <v>417</v>
@@ -3095,10 +3081,10 @@
         <v>3336</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>5</v>
       </c>
@@ -3109,13 +3095,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G12" s="25">
         <v>417</v>
@@ -3128,10 +3114,10 @@
         <v>3336</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>6</v>
       </c>
@@ -3142,13 +3128,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13" s="25">
         <v>376</v>
@@ -3161,10 +3147,10 @@
         <v>3008</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>7</v>
       </c>
@@ -3175,13 +3161,13 @@
         <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G14" s="25">
         <v>540</v>
@@ -3194,10 +3180,10 @@
         <v>4320</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>8</v>
       </c>
@@ -3208,13 +3194,13 @@
         <v>30</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="25">
         <v>969</v>
@@ -3227,10 +3213,10 @@
         <v>7752</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>9</v>
       </c>
@@ -3238,16 +3224,16 @@
         <v>18</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="G16" s="25">
         <v>87</v>
@@ -3260,10 +3246,10 @@
         <v>696</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>10</v>
       </c>
@@ -3274,13 +3260,13 @@
         <v>31</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="25">
         <v>780</v>
@@ -3293,10 +3279,10 @@
         <v>6240</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>11</v>
       </c>
@@ -3307,13 +3293,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G18" s="25">
         <v>123</v>
@@ -3326,10 +3312,10 @@
         <v>3936</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>12</v>
       </c>
@@ -3340,13 +3326,13 @@
         <v>33</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" s="25">
         <v>32</v>
@@ -3359,10 +3345,10 @@
         <v>1664</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>13</v>
       </c>
@@ -3373,13 +3359,13 @@
         <v>34</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G20" s="25">
         <v>34</v>
@@ -3392,10 +3378,10 @@
         <v>408</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>14</v>
       </c>
@@ -3406,13 +3392,13 @@
         <v>35</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="25">
         <v>15</v>
@@ -3425,10 +3411,10 @@
         <v>180</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>15</v>
       </c>
@@ -3439,13 +3425,13 @@
         <v>44</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G22" s="25">
         <v>194</v>
@@ -3458,10 +3444,10 @@
         <v>2328</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>16</v>
       </c>
@@ -3472,13 +3458,13 @@
         <v>36</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" s="25">
         <v>3</v>
@@ -3491,10 +3477,10 @@
         <v>96</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>17</v>
       </c>
@@ -3505,13 +3491,13 @@
         <v>37</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="25">
         <v>918</v>
@@ -3524,10 +3510,10 @@
         <v>1836</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>18</v>
       </c>
@@ -3538,13 +3524,13 @@
         <v>26</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G25" s="25">
         <v>250</v>
@@ -3558,7 +3544,7 @@
       </c>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>19</v>
       </c>
@@ -3569,13 +3555,13 @@
         <v>26</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" s="25">
         <v>250</v>
@@ -3589,7 +3575,7 @@
       </c>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>20</v>
       </c>
@@ -3600,13 +3586,13 @@
         <v>27</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G27" s="25">
         <v>250</v>
@@ -3620,7 +3606,7 @@
       </c>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
         <v>21</v>
       </c>
@@ -3631,13 +3617,13 @@
         <v>48</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E28" s="23">
         <v>72005</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G28" s="25">
         <v>1190</v>
@@ -3650,10 +3636,10 @@
         <v>4760</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>22</v>
       </c>
@@ -3664,13 +3650,13 @@
         <v>49</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E29" s="23">
         <v>70111</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G29" s="25">
         <v>499</v>
@@ -3683,10 +3669,10 @@
         <v>998</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>23</v>
       </c>
@@ -3694,16 +3680,16 @@
         <v>18</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G30" s="25">
         <v>6530</v>
@@ -3717,7 +3703,7 @@
       </c>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>24</v>
       </c>
@@ -3725,16 +3711,16 @@
         <v>18</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>159</v>
       </c>
       <c r="G31" s="25">
         <v>2138</v>
@@ -3748,7 +3734,7 @@
       </c>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>25</v>
       </c>
@@ -3756,16 +3742,16 @@
         <v>18</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E32" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="G32" s="25">
         <v>2599</v>
@@ -3778,10 +3764,10 @@
         <v>7797</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>26</v>
       </c>
@@ -3811,10 +3797,10 @@
         <v>3840</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="18">
         <v>27</v>
       </c>
@@ -3822,16 +3808,16 @@
         <v>18</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="27">
         <v>299</v>
@@ -3844,10 +3830,10 @@
         <v>598</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -3855,16 +3841,16 @@
         <v>18</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G35" s="27">
         <v>3117</v>
@@ -3878,7 +3864,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>29</v>
       </c>
@@ -3886,16 +3872,16 @@
         <v>18</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G36" s="26">
         <v>329</v>
@@ -3908,10 +3894,10 @@
         <v>1316</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>30</v>
       </c>
@@ -3919,13 +3905,13 @@
         <v>18</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>52</v>
@@ -3941,10 +3927,10 @@
         <v>6420</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A38" s="18">
         <v>31</v>
       </c>
@@ -3952,16 +3938,16 @@
         <v>18</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G38" s="26">
         <v>619</v>
@@ -3974,10 +3960,10 @@
         <v>619</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="18">
         <v>32</v>
       </c>
@@ -3985,16 +3971,16 @@
         <v>18</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="G39" s="6">
         <v>4990</v>
@@ -4007,10 +3993,10 @@
         <v>4990</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A40" s="18">
         <v>33</v>
       </c>
@@ -4018,16 +4004,16 @@
         <v>18</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="G40" s="8">
         <v>600</v>
@@ -4040,10 +4026,10 @@
         <v>600</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>34</v>
       </c>
@@ -4051,16 +4037,16 @@
         <v>18</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="G41" s="8">
         <v>120</v>
@@ -4073,10 +4059,10 @@
         <v>120</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
         <v>35</v>
       </c>
@@ -4084,16 +4070,16 @@
         <v>18</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E42" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="G42" s="8">
         <v>50</v>
@@ -4106,10 +4092,10 @@
         <v>400</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>36</v>
       </c>
@@ -4117,16 +4103,16 @@
         <v>18</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G43" s="8">
         <v>30</v>
@@ -4139,10 +4125,10 @@
         <v>120</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A44" s="18">
         <v>37</v>
       </c>
@@ -4150,16 +4136,16 @@
         <v>18</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G44" s="8">
         <v>100</v>
@@ -4172,10 +4158,10 @@
         <v>100</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A45" s="18">
         <v>38</v>
       </c>
@@ -4183,16 +4169,16 @@
         <v>18</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G45" s="8">
         <v>100</v>
@@ -4205,10 +4191,10 @@
         <v>100</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A46" s="18">
         <v>39</v>
       </c>
@@ -4216,16 +4202,16 @@
         <v>18</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G46" s="8">
         <v>20</v>
@@ -4238,10 +4224,10 @@
         <v>160</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A47" s="18">
         <v>40</v>
       </c>
@@ -4249,16 +4235,16 @@
         <v>18</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G47" s="8">
         <v>480</v>
@@ -4271,10 +4257,10 @@
         <v>480</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>41</v>
       </c>
@@ -4282,16 +4268,16 @@
         <v>18</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" s="8">
         <v>50</v>
@@ -4304,10 +4290,10 @@
         <v>100</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>42</v>
       </c>
@@ -4315,16 +4301,16 @@
         <v>18</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G49" s="8">
         <v>210</v>
@@ -4337,10 +4323,10 @@
         <v>210</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A50" s="18">
         <v>43</v>
       </c>
@@ -4348,16 +4334,16 @@
         <v>18</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G50" s="8">
         <v>30</v>
@@ -4370,10 +4356,10 @@
         <v>60</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A51" s="18">
         <v>44</v>
       </c>
@@ -4381,16 +4367,16 @@
         <v>18</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" s="8">
         <v>20</v>
@@ -4403,10 +4389,10 @@
         <v>80</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A52" s="18">
         <v>45</v>
       </c>
@@ -4414,16 +4400,16 @@
         <v>18</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G52" s="8">
         <v>20</v>
@@ -4436,10 +4422,10 @@
         <v>40</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A53" s="18">
         <v>46</v>
       </c>
@@ -4447,16 +4433,16 @@
         <v>18</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" s="8">
         <v>300</v>
@@ -4469,10 +4455,10 @@
         <v>600</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A54" s="18">
         <v>47</v>
       </c>
@@ -4480,16 +4466,16 @@
         <v>18</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G54" s="8">
         <v>349</v>
@@ -4502,10 +4488,10 @@
         <v>698</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A55" s="18">
         <v>48</v>
       </c>
@@ -4513,16 +4499,16 @@
         <v>18</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G55" s="8">
         <v>13</v>
@@ -4535,10 +4521,10 @@
         <v>312</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A56" s="18">
         <v>49</v>
       </c>
@@ -4546,16 +4532,16 @@
         <v>18</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G56" s="8">
         <v>689</v>
@@ -4568,10 +4554,10 @@
         <v>689</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A57" s="18">
         <v>50</v>
       </c>
@@ -4579,16 +4565,16 @@
         <v>18</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G57" s="8">
         <v>644</v>
@@ -4601,10 +4587,10 @@
         <v>644</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A58" s="18">
         <v>51</v>
       </c>
@@ -4612,16 +4598,16 @@
         <v>18</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G58" s="6">
         <v>1440</v>
@@ -4634,10 +4620,10 @@
         <v>5760</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A59" s="18">
         <v>52</v>
       </c>
@@ -4645,16 +4631,16 @@
         <v>18</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G59" s="8">
         <v>800</v>
@@ -4667,10 +4653,10 @@
         <v>3200</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A60" s="18">
         <v>53</v>
       </c>
@@ -4678,16 +4664,16 @@
         <v>18</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G60" s="8">
         <v>690</v>
@@ -4700,10 +4686,10 @@
         <v>4140</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A61" s="18">
         <v>54</v>
       </c>
@@ -4711,16 +4697,16 @@
         <v>18</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G61" s="8">
         <v>380</v>
@@ -4733,10 +4719,10 @@
         <v>3040</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A62" s="18">
         <v>55</v>
       </c>
@@ -4744,16 +4730,16 @@
         <v>18</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G62" s="8">
         <v>361</v>
@@ -4766,10 +4752,10 @@
         <v>4332</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>56</v>
       </c>
@@ -4777,16 +4763,16 @@
         <v>18</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G63" s="8">
         <v>315</v>
@@ -4799,10 +4785,10 @@
         <v>28980</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A64" s="18">
         <v>57</v>
       </c>
@@ -4813,13 +4799,13 @@
         <v>26</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G64" s="8">
         <v>250</v>
@@ -4832,10 +4818,10 @@
         <v>2000</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A65" s="18">
         <v>58</v>
       </c>
@@ -4843,16 +4829,16 @@
         <v>18</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G65" s="8">
         <v>123</v>
@@ -4865,10 +4851,10 @@
         <v>1968</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A66" s="18">
         <v>59</v>
       </c>
@@ -4876,16 +4862,16 @@
         <v>18</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G66" s="8">
         <v>320</v>
@@ -4898,10 +4884,10 @@
         <v>1280</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="43.2" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>60</v>
       </c>
@@ -4909,16 +4895,16 @@
         <v>18</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G67" s="8">
         <v>4892</v>
@@ -4931,10 +4917,10 @@
         <v>9784</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="18">
         <v>61</v>
       </c>
@@ -4942,16 +4928,16 @@
         <v>18</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G68" s="8">
         <v>157</v>
@@ -4964,10 +4950,10 @@
         <v>1884</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A69" s="18">
         <v>62</v>
       </c>
@@ -4975,16 +4961,16 @@
         <v>18</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G69" s="8">
         <v>32</v>
@@ -4997,10 +4983,10 @@
         <v>384</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="18">
         <v>63</v>
       </c>
@@ -5008,16 +4994,16 @@
         <v>18</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G70" s="8">
         <v>1933</v>
@@ -5030,10 +5016,10 @@
         <v>3866</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18">
         <v>64</v>
       </c>
@@ -5041,16 +5027,16 @@
         <v>18</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G71" s="8">
         <v>1933</v>
@@ -5063,10 +5049,10 @@
         <v>1933</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A72" s="18">
         <v>65</v>
       </c>
@@ -5074,16 +5060,16 @@
         <v>18</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G72" s="8">
         <v>4200</v>
@@ -5096,10 +5082,10 @@
         <v>12600</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="18">
         <v>66</v>
       </c>
@@ -5107,16 +5093,16 @@
         <v>18</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G73" s="8">
         <v>699</v>
@@ -5129,10 +5115,10 @@
         <v>699</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="18">
         <v>67</v>
       </c>
@@ -5140,16 +5126,16 @@
         <v>18</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G74" s="8">
         <v>699</v>
@@ -5162,10 +5148,10 @@
         <v>1398</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
         <v>68</v>
       </c>
@@ -5173,16 +5159,16 @@
         <v>18</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G75" s="8">
         <v>99</v>
@@ -5195,10 +5181,10 @@
         <v>99</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A76" s="18">
         <v>69</v>
       </c>
@@ -5206,16 +5192,16 @@
         <v>18</v>
       </c>
       <c r="C76" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="G76" s="8">
         <v>769</v>
@@ -5228,10 +5214,10 @@
         <v>769</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="18"/>
@@ -5243,7 +5229,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5255,7 +5241,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -5267,7 +5253,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5279,7 +5265,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5291,7 +5277,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5303,7 +5289,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5315,7 +5301,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -5327,7 +5313,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -5339,7 +5325,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5351,7 +5337,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5363,7 +5349,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5375,7 +5361,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5387,7 +5373,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5399,7 +5385,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5411,7 +5397,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5423,7 +5409,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5435,7 +5421,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5447,7 +5433,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -5459,7 +5445,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -5471,7 +5457,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5483,7 +5469,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5495,7 +5481,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5507,7 +5493,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5532,7 +5518,7 @@
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
